--- a/docs/javaでポーカー詳細設計(画面).xlsx
+++ b/docs/javaでポーカー詳細設計(画面).xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181879A1-0016-4CDA-AB51-1C7AEF1E35B9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A846D6B4-C7D7-46E8-88C6-CA264A0021F9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" xr2:uid="{C0D57BD4-A07A-46C3-8F0F-757B4A877B74}"/>
   </bookViews>
   <sheets>
-    <sheet name="ポーカースタート画面" sheetId="1" r:id="rId1"/>
-    <sheet name="ポーカープレイ画面(手札交換)" sheetId="2" r:id="rId2"/>
-    <sheet name="ポーカープレイ画面(結果表示)" sheetId="3" r:id="rId3"/>
+    <sheet name="ログイン画面" sheetId="5" r:id="rId1"/>
+    <sheet name="ユーザー登録画面" sheetId="6" r:id="rId2"/>
+    <sheet name="ポーカースタート画面" sheetId="1" r:id="rId3"/>
+    <sheet name="ランキング表示画面" sheetId="7" r:id="rId4"/>
+    <sheet name="ポーカープレイ画面" sheetId="2" r:id="rId5"/>
+    <sheet name="改訂履歴" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="133">
   <si>
     <t>イベントハンドラ名</t>
     <rPh sb="8" eb="9">
@@ -469,6 +472,618 @@
   </si>
   <si>
     <t>　handsChange・・・PokerFieldコンポーネントのhandsChange</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バージョン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改修対象</t>
+    <rPh sb="0" eb="2">
+      <t>カイシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改修内容</t>
+    <rPh sb="0" eb="2">
+      <t>カイシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V1.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規作成</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V2.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポーカースタート画面
+ポーカープレイ画面(手札交換)
+ポーカープレイ画面(結果表示)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V1.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除対象</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポーカープレイ画面(結果表示)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポーカープレイ画面のコンポーネントについての内容を一つ
+のシートにまとめた。それに併せて、シート名もポーカープレイ画面に変更した。</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>アワ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポーカープレイ画面(手札交換)</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テフダ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポーカースタート画面
+ポーカープレイ画面</t>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル名: Login.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンポーネント名: LoginHeader</t>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンポーネント名: LoginForm</t>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　username・・・入力したユーザー名</t>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　password・・・入力したパスワード</t>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>usernameHandleChange</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー名入力欄に入力した時</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stateのusernameを変更する</t>
+    <rPh sb="15" eb="17">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>passwordHandleChange</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード入力欄に入力した時</t>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stateのpasswordを変更する</t>
+    <rPh sb="15" eb="17">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ログイン」ボタンをクリックした時</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインするためのリクエストを投げる</t>
+    <rPh sb="15" eb="16">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンポーネント名: UserRegisterLink</t>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>handleToUserRegister</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ユーザー登録はこちら」リンクにクリックした時</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー登録画面に遷移する</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル名: UserRegister.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンポーネント名:UserRegisterHeader</t>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンポーネント名: UserRegisterForm</t>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　confirmationPassword・・・入力したパスワード(確認用)</t>
+    <rPh sb="24" eb="26">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t>カクニンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>confirmationPasswordHandleChange</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード(確認用)入力欄に入力した時</t>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stateのconfirmationPasswordを変更する</t>
+    <rPh sb="27" eb="29">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「登録」ボタンをクリックした時</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーを登録するためのリクエストを投げる</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>handleCancel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「キャンセル」ボタンをクリックした時</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面に遷移する</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル名: Ranking.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンポーネント名: RankingHeader</t>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>handleToPokerStart</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ポーカースタート画面へ」リンクにクリックした時</t>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンポーネント名: RankingContent</t>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　ranking・・・表示するランキング内容</t>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面
+ユーザー登録画面
+ランキング表示画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>handleToRanking</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ランキング一覧」リンクをクリックした時</t>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【ポーカーの手札交換】</t>
+  </si>
+  <si>
+    <t>【勝負するかどうか決める】</t>
+    <rPh sb="1" eb="3">
+      <t>ショウブ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【結果表示】</t>
+    <rPh sb="1" eb="3">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンポーネント名: playButton</t>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>handlePlaySubmit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「勝負する」ボタンをクリックした時</t>
+    <rPh sb="1" eb="3">
+      <t>ショウブ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勝負するためのリクエストを投げる</t>
+    <rPh sb="0" eb="2">
+      <t>ショウブ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>handleSurrenderSubmit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「勝負を降りる」ボタンをクリックした時</t>
+    <rPh sb="1" eb="3">
+      <t>ショウブ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勝負を降りるためのリクエストを投げる</t>
+    <rPh sb="0" eb="2">
+      <t>ショウブ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【ベット】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンポーネント名: BetForm</t>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　betMoney・・・入力したベット金額</t>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>betMoneyHandleChange</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベット金額入力欄に入力した時</t>
+    <rPh sb="3" eb="5">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stateのbetMoneyを変更する</t>
+    <rPh sb="15" eb="17">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ベット」ボタンをクリックした時</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベットするためのリクエストを投げる</t>
+    <rPh sb="14" eb="15">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ポーカースタート画面
+-----------------------------------
+・「ランキング一覧」リンク及び「handleToRanking」イベントハンドラを追加
+ポーカープレイ画面
+-------------------------------------
+・【ベット】及び【勝負するかどうか決める】段階のコンポーネント
+情報を追加
+・HandChangeButtonコンポーネントの文言を「勝負」から手札交換に変更
+</t>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="146" eb="147">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="161" eb="163">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="172" eb="174">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="175" eb="177">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="204" eb="206">
+      <t>モンゴン</t>
+    </rPh>
+    <rPh sb="208" eb="210">
+      <t>ショウブ</t>
+    </rPh>
+    <rPh sb="213" eb="215">
+      <t>テフダ</t>
+    </rPh>
+    <rPh sb="215" eb="217">
+      <t>コウカン</t>
+    </rPh>
+    <rPh sb="218" eb="220">
+      <t>ヘンコウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -501,7 +1116,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -524,17 +1139,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -555,6 +1191,756 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>198537</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99AA8C8-3226-4749-843A-53A78EAD8716}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="716280" y="327660"/>
+          <a:ext cx="4808637" cy="2187130"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1338943</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>206827</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="楕円 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FBA5319-96A5-4471-861D-802A2C516FAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3825240" y="381000"/>
+          <a:ext cx="272143" cy="283027"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1897380</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2169523</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>191587</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="楕円 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FAD519A-7D33-4722-AED3-CB594B2A3C75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4655820" y="1051560"/>
+          <a:ext cx="272143" cy="283027"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1082040</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1354183</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>214447</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="楕円 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04F9D956-E2E1-4B23-960C-3535F1758A25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3840480" y="2217420"/>
+          <a:ext cx="272143" cy="283027"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1691640</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1963783</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>16327</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="楕円 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E834F6D6-F9CB-4010-B71B-56DA2CD7DA54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7018020" y="419100"/>
+          <a:ext cx="272143" cy="283027"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1813560</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2085703</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>46807</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="楕円 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEF70978-56DB-499A-98DF-89E3E68D7F52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7139940" y="1592580"/>
+          <a:ext cx="272143" cy="283027"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1743892</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2016035</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>23947</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="楕円 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35CD1571-6977-4C44-ACE7-4D0A76A12D6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7070272" y="4084320"/>
+          <a:ext cx="272143" cy="283027"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>324727</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED31EF4E-DA24-4766-B17B-84A012E9775A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="731520" y="358140"/>
+          <a:ext cx="4957687" cy="2293620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="楕円 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23D1C0CD-CDD0-4FCB-99C7-FC0E952EE869}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4046220" y="441960"/>
+          <a:ext cx="213360" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>60961</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>167641</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>289561</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>175261</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="楕円 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{090E8652-BAF3-454B-A94E-58F7E3C1144E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4754881" y="1996441"/>
+          <a:ext cx="228600" cy="236220"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="楕円 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{717A2E9F-84F2-4380-875D-F95D8EC0622F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6408420" y="487680"/>
+          <a:ext cx="213360" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>335281</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>22861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>563881</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>30481</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="楕円 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A5332D-178C-4CF5-A005-929133C45BB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6370321" y="1623061"/>
+          <a:ext cx="228600" cy="236220"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -800,30 +2186,101 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1774372</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>174171</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>109946</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>143691</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="フローチャート: 処理 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8ECE504-BEF4-4E81-B953-979ACBB767D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4811486" y="859971"/>
+          <a:ext cx="1318260" cy="426720"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ランキング一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>391887</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>185057</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>632460</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2743200</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>138947</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>61375</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>30669</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7">
+        <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D2F7575-F3D7-4339-834E-C09B4EDAEFDC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D72651DB-A6D5-4260-9E4F-911EF3F5724D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -845,7 +2302,446 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1066801" y="642257"/>
+          <a:off x="632460" y="365760"/>
+          <a:ext cx="4793395" cy="2179509"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>355963</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>115387</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="楕円 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26B69705-DA23-4996-84DA-2C39CD6BE8A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2766060" y="60960"/>
+          <a:ext cx="272143" cy="283027"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>500743</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>46807</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="楕円 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78688522-44CB-4A71-BF07-851223E733F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4922520" y="449580"/>
+          <a:ext cx="272143" cy="283027"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>256903</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>191587</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="楕円 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13D47978-3206-412B-8054-7D802FDD58EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4008120" y="1508760"/>
+          <a:ext cx="272143" cy="283027"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>622663</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>23947</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="楕円 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B965A7C-D2C7-4836-9F8A-C4393BA09E0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715000" y="426720"/>
+          <a:ext cx="272143" cy="283027"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>660763</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>39187</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="楕円 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C545277B-34F0-4F58-9EC3-90BA5EC4EE75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5753100" y="1584960"/>
+          <a:ext cx="272143" cy="283027"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>350519</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>155090</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>624455</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>209517</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="楕円 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{806F7209-E83A-492B-8F03-A5E4ACE376DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5714999" y="3355490"/>
+          <a:ext cx="273936" cy="283027"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>391887</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>185057</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2743200</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>138947</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D2F7575-F3D7-4339-834E-C09B4EDAEFDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1066801" y="5442857"/>
           <a:ext cx="4920342" cy="3154290"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -859,13 +2755,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>174172</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>141515</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1763487</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>10886</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -925,13 +2821,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>598714</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>21772</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>936171</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>54429</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -988,13 +2884,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>468086</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>206828</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1665514</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>65314</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1054,13 +2950,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>936171</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>32657</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1828800</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>206829</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1120,13 +3016,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1774373</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>130626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2830287</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>174169</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1186,13 +3082,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>195945</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>21773</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1249,13 +3145,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1796143</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>32657</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2144485</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>130628</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1312,13 +3208,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1915886</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>21773</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2264228</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>163287</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1375,13 +3271,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>348343</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>206830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>620486</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>32657</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1439,13 +3335,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>141515</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>65311</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>206829</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1505,13 +3401,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2547257</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>43544</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2906486</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1567,15 +3463,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2917371</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>206828</xdr:rowOff>
+      <xdr:colOff>2797627</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>10887</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3265713</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:colOff>3156856</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>87087</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1590,8 +3486,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525000" y="435428"/>
-          <a:ext cx="348342" cy="326571"/>
+          <a:off x="9405256" y="696687"/>
+          <a:ext cx="359229" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1631,13 +3527,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2852057</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>130628</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3189514</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>163285</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1694,13 +3590,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2721429</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>119745</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3069771</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>32659</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1757,13 +3653,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1132114</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>32658</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1491343</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>141514</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1816,30 +3712,75 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1034145</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>227952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="図 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD280E1B-F8E5-4269-89DA-570E1E881045}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1349829" y="11430000"/>
+          <a:ext cx="6291945" cy="3885552"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>10886</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>119746</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1251858</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>54426</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>293914</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>195944</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3124201</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>195942</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="楕円 4">
+        <xdr:cNvPr id="40" name="正方形/長方形 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBA259BB-9DA0-4179-8DAE-2852B2C05F3E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F2739E8-B469-4949-BE05-D1BC958713BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1847,7 +3788,523 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="4691746"/>
+          <a:off x="2601687" y="12856026"/>
+          <a:ext cx="3766457" cy="827316"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>65316</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>152396</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>968830</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>195939</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="正方形/長方形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B51CEDB-4315-4980-8C7B-70CC98EB99E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6672945" y="14782796"/>
+          <a:ext cx="903514" cy="500743"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3167744</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>130629</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="楕円 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{426CEE49-FE60-43FB-868C-8FC9ED9A80F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6411687" y="12420601"/>
+          <a:ext cx="304799" cy="283028"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1121230</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>141513</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1469572</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>10884</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="楕円 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E620E48-F69A-48D0-96DE-3C37D39AF2A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7728859" y="14086113"/>
+          <a:ext cx="348342" cy="326571"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1796145</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>141513</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1393374</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>108856</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="正方形/長方形 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91A68C31-9785-47C1-8658-05BB92DF1F03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5040088" y="14543313"/>
+          <a:ext cx="2960915" cy="881743"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2013860</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>217714</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2329544</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="楕円 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF75556B-814F-410B-A77A-295022A4AB66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5257803" y="23534914"/>
+          <a:ext cx="315684" cy="239486"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2394862</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>174167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>87090</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="正方形/長方形 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A8EE87D-E652-4CBA-B0CF-4D2283B6BAE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5638805" y="23948567"/>
+          <a:ext cx="1055914" cy="446319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1045031</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1317174</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>119742</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="楕円 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB62B54C-CA5B-4236-BB61-7144B6D76586}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7652660" y="14935199"/>
+          <a:ext cx="272143" cy="272143"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>21774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>587829</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>97972</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="楕円 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4985586-39B8-484F-BF94-DBC09B135B34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="979715" y="15795174"/>
           <a:ext cx="283028" cy="304798"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1887,23 +4344,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>54429</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2884715</xdr:colOff>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>217715</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>359229</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3189515</xdr:colOff>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>65314</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="楕円 5">
+        <xdr:cNvPr id="49" name="楕円 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FD21E4C-4D45-4BE6-9296-966F462EEFF2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CAC116E-F0FE-4CBA-A24D-C27037788EA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1911,316 +4368,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8153400" y="446315"/>
+          <a:off x="9492344" y="11647715"/>
           <a:ext cx="304800" cy="304799"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>2</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>43541</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>261257</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>151753</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6832E3B0-607D-4654-B4FE-845A2C4CBCAF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="718455" y="381001"/>
-          <a:ext cx="6291945" cy="3885552"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>620484</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>206827</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>337456</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>119743</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94DA53C5-A03E-45AA-B022-2C2768B8F908}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1970313" y="1807027"/>
-          <a:ext cx="3766457" cy="827316"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="50800">
-          <a:solidFill>
-            <a:srgbClr val="0070C0"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>642257</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>76197</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>195942</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>119740</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C29E438-B1F4-4170-B25E-BDAB76FC0CAB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6041571" y="3733797"/>
-          <a:ext cx="903514" cy="500743"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="50800">
-          <a:solidFill>
-            <a:srgbClr val="0070C0"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>2</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>10883</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>54430</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="楕円 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72FD1FA8-8B41-4822-8CAB-5A34C265AEB1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5780313" y="1371602"/>
-          <a:ext cx="304799" cy="283028"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>1</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>348342</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>65314</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>21770</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>163285</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="楕円 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{370A78F4-E008-4003-AC7E-186E922A02CE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7097485" y="3037114"/>
-          <a:ext cx="348342" cy="326571"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2258,23 +4407,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>359228</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>65314</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2960915</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>174170</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>620486</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>32657</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3298372</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>206827</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="正方形/長方形 12">
+        <xdr:cNvPr id="50" name="楕円 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B94BD00-6F98-434C-A4D8-853170F75BE6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28999B08-F4EC-4C44-8308-2B822C19456F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2282,73 +4431,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4408714" y="3494314"/>
-          <a:ext cx="2960915" cy="881743"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="50800">
-          <a:solidFill>
-            <a:srgbClr val="0070C0"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>478971</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>195942</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>141514</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>228599</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="楕円 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F69696E-BD94-411A-A28F-620B6B0A72C7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4528457" y="3853542"/>
+          <a:off x="9568544" y="14118770"/>
           <a:ext cx="337457" cy="261257"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -2387,23 +4470,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>228602</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>76197</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2960915</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>206827</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>609602</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>119740</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3233058</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>21770</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="正方形/長方形 14">
+        <xdr:cNvPr id="51" name="楕円 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E88A887B-2EF9-4757-95C6-DC9D5A6A9E20}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01014A6E-E334-4BCD-BF64-0D878D845CBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2411,73 +4494,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4953002" y="3733797"/>
-          <a:ext cx="1055914" cy="500743"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="50800">
-          <a:solidFill>
-            <a:srgbClr val="0070C0"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>272143</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>544286</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>43543</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="楕円 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B57BCBC7-3374-4C21-8036-097D9220ADF9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7021286" y="3886200"/>
+          <a:off x="9568544" y="16894627"/>
           <a:ext cx="272143" cy="272143"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -2514,25 +4531,75 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>119741</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>925285</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>60294</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="図 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EE93695-7D90-4624-8091-A8B1063CDE2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1404257" y="16121741"/>
+          <a:ext cx="6128657" cy="3598153"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>21772</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>195942</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2398124</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>109946</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>359229</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>228599</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2720685</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>176680</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="楕円 16">
+        <xdr:cNvPr id="53" name="楕円 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89A2BFFB-A2DC-4FEC-9FE1-4A525D1EDC5F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEC4FC45-34C5-48C4-901D-978D7C926CC6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2540,8 +4607,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8120743" y="2939142"/>
-          <a:ext cx="337457" cy="261257"/>
+          <a:off x="5642067" y="17254946"/>
+          <a:ext cx="322561" cy="295334"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2570,8 +4637,9 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>3</a:t>
+            <a:t>1</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2579,23 +4647,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>185057</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2811779</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>77288</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>348344</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3134340</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>144022</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="楕円 17">
+        <xdr:cNvPr id="54" name="楕円 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55BA5FB6-8834-4C88-A201-B80E7A3346FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F2463E7-F598-420D-A399-A58BEC2A153A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2603,8 +4671,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8175172" y="5671457"/>
-          <a:ext cx="272143" cy="272143"/>
+          <a:off x="9419408" y="16079288"/>
+          <a:ext cx="322561" cy="295334"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2633,7 +4701,261 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>4</a:t>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>202475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2687832</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>72935</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="図 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4A8B9C5-859E-4DEA-95ED-9D48255E867C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="674914" y="888275"/>
+          <a:ext cx="5256861" cy="2385060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1235531</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>185058</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1507674</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>10885</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="楕円 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C24227A6-44A5-4F40-8D6D-59F61C04D253}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4479474" y="2013858"/>
+          <a:ext cx="272143" cy="283027"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3030584</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>206828</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3302727</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>32655</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="楕円 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4FA05D3-6A32-4070-9932-235CBC7DAC17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6274527" y="892628"/>
+          <a:ext cx="272143" cy="283027"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1904999</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>206829</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2699657</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="フローチャート: 処理 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B454ADF6-331C-40CB-A495-D88CE83D049F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5148942" y="8207829"/>
+          <a:ext cx="794658" cy="293914"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>手札交換</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2641,6 +4963,20 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{48E62EB0-9878-4DA4-A158-09F2B3C5AF48}" name="テーブル3" displayName="テーブル3" ref="A1:E4" totalsRowShown="0">
+  <autoFilter ref="A1:E4" xr:uid="{0CEC04DD-2E76-442E-8DEE-22452231BF92}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{FA698B92-8206-4E79-9A3F-6241D1B7030E}" name="バージョン"/>
+    <tableColumn id="2" xr3:uid="{13988D42-FEC5-4D57-BD81-3CA75F8CDAD8}" name="新規作成"/>
+    <tableColumn id="3" xr3:uid="{D7D4BEDF-7FF1-4D06-9E2D-E1831136CB44}" name="改修対象"/>
+    <tableColumn id="5" xr3:uid="{9DC3BAF8-DDB5-4B22-8E92-108BF16AD42D}" name="削除対象"/>
+    <tableColumn id="4" xr3:uid="{97CD205E-99BD-4F9F-BB9A-9A1FE1A7DD4D}" name="改修内容"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2939,10 +5275,327 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23F1899-6DEA-4ED7-827A-D3D1F71B7DC1}">
+  <dimension ref="B1:G24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="27.3984375" customWidth="1"/>
+    <col min="3" max="3" width="33.69921875" customWidth="1"/>
+    <col min="4" max="4" width="29.69921875" customWidth="1"/>
+    <col min="5" max="5" width="23.8984375" customWidth="1"/>
+    <col min="6" max="6" width="44.5" customWidth="1"/>
+    <col min="7" max="7" width="36" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="E3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="E8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="E11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="E12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="E14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="E15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="E16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.45">
+      <c r="E17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7" x14ac:dyDescent="0.45">
+      <c r="E19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7" x14ac:dyDescent="0.45">
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7" x14ac:dyDescent="0.45">
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7" x14ac:dyDescent="0.45">
+      <c r="E22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="5:7" x14ac:dyDescent="0.45">
+      <c r="E23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7" x14ac:dyDescent="0.45">
+      <c r="E24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11575CE9-7E20-4F5E-A819-2BB6556E0F60}">
+  <dimension ref="B1:M20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="11" max="11" width="31.69921875" customWidth="1"/>
+    <col min="12" max="12" width="34.296875" customWidth="1"/>
+    <col min="13" max="13" width="42.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="K3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="K4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="K5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="K6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="K8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="K9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="K10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="K11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="K12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="K13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="K14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="K15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="K16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="11:13" x14ac:dyDescent="0.45">
+      <c r="K17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="11:13" x14ac:dyDescent="0.45">
+      <c r="K18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="11:13" x14ac:dyDescent="0.45">
+      <c r="K19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="11:13" x14ac:dyDescent="0.45">
+      <c r="K20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{803667A2-846E-4FFE-B0B5-D5A40B329EBC}">
-  <dimension ref="C2:E25"/>
+  <dimension ref="C2:E26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3014,6 +5667,17 @@
         <v>13</v>
       </c>
     </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C26" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3022,11 +5686,125 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C6B724-1F43-42C3-A505-1E87519749D1}">
+  <dimension ref="B1:L20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="10" max="10" width="28" customWidth="1"/>
+    <col min="11" max="11" width="45.19921875" customWidth="1"/>
+    <col min="12" max="12" width="33.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="J3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="J4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="J6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="J9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="J12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="J13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="J16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="10:10" x14ac:dyDescent="0.45">
+      <c r="J17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="10:10" x14ac:dyDescent="0.45">
+      <c r="J18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="10:10" x14ac:dyDescent="0.45">
+      <c r="J19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="10:10" x14ac:dyDescent="0.45">
+      <c r="J20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6B4B58-4CE9-4C8F-B454-5DFAE4BF85B4}">
-  <dimension ref="C2:I45"/>
+  <dimension ref="B2:I124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E81" sqref="E81"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3039,278 +5817,611 @@
     <col min="9" max="9" width="49.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="F3" t="s">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="E5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="E8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="E10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="E11" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="E12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F24" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="F5" t="s">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F26" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="F6" t="s">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="F7" t="s">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="F8" t="s">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="F9" t="s">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="F11" t="s">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F32" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="F13" t="s">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="F34" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="F14" t="s">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="F35" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="F15" t="s">
+    <row r="36" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="F36" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="F16" t="s">
+    <row r="37" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="F37" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="F17" t="s">
+    <row r="38" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="F38" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="F18" t="s">
+    <row r="39" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="F39" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C21" t="s">
+    <row r="42" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C42" t="s">
         <v>15</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F42" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C23" t="s">
+    <row r="44" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C44" t="s">
         <v>16</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F44" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C24" t="s">
+    <row r="45" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C45" t="s">
         <v>17</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F45" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C25" t="s">
+    <row r="46" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C46" t="s">
         <v>7</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F46" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C26" t="s">
+    <row r="47" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C47" t="s">
         <v>18</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F47" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C27" t="s">
+    <row r="48" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C48" t="s">
         <v>19</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F48" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C28" t="s">
+    <row r="49" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C49" t="s">
         <v>20</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F49" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C29" t="s">
+    <row r="50" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C50" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G50" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H50" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C30" t="s">
+    <row r="51" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C51" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G51" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H51" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C31" t="s">
+    <row r="52" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C52" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C32" t="s">
+    <row r="53" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C53" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C33" t="s">
+    <row r="54" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C54" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C34" s="1" t="s">
+    <row r="55" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C55" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G55" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C35" s="1" t="s">
+    <row r="56" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C56" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C36" s="1" t="s">
+    <row r="57" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C57" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G57" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C37" s="1" t="s">
+    <row r="58" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G58" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="G38" t="s">
+    <row r="59" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="G59" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="G39" t="s">
+    <row r="60" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="G60" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="G40" t="s">
+    <row r="61" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="G61" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="G41" t="s">
+    <row r="62" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="G62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="G42" t="s">
+    <row r="63" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="G63" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="G43" t="s">
+    <row r="64" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="G64" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="G44" s="1" t="s">
+    <row r="65" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="G65" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="H65" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="I65" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="G45" s="1" t="s">
+    <row r="66" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="G66" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="H66" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="I66" s="1" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="68" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="70" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C70" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="71" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="F71" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="72" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="F72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="F73" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="F74" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="75" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="F75" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="F76" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="F77" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="78" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="F78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="F79" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="80" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="F80" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88" spans="3:6" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="89" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C89" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="92" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="F92" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="94" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="F94" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="F95" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="96" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="F96" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="F97" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="98" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="F98" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="99" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="F99" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="100" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="F100" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="103" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="F103" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="105" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="F105" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="F106" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="107" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="F107" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="F108" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="109" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="F109" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="110" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C110" t="s">
+        <v>47</v>
+      </c>
+      <c r="F110" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="111" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="F111" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="112" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C112" t="s">
+        <v>16</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C113" t="s">
+        <v>22</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="114" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C114" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="115" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C115" t="s">
+        <v>48</v>
+      </c>
+      <c r="F115" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="116" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C116" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="117" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C117" t="s">
+        <v>34</v>
+      </c>
+      <c r="F117" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="F118" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="F119" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="120" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="F120" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="121" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="F121" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="122" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="F122" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="123" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="F123" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="F124" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -3321,213 +6432,93 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57EBB74-E546-43FF-ABB5-33EE459A279F}">
-  <dimension ref="B1:P35"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD88CBB9-E988-4B1E-8F8A-3E55C8CCD568}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="14" max="14" width="20.69921875" customWidth="1"/>
-    <col min="15" max="15" width="38.796875" customWidth="1"/>
-    <col min="16" max="16" width="32.796875" customWidth="1"/>
+    <col min="1" max="1" width="23.59765625" customWidth="1"/>
+    <col min="2" max="2" width="26.8984375" customWidth="1"/>
+    <col min="3" max="3" width="30.296875" customWidth="1"/>
+    <col min="4" max="4" width="28.19921875" customWidth="1"/>
+    <col min="5" max="5" width="55.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
       <c r="B1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="N3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="N5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="N6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="N7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="N8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="N9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="N10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="N11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="N14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="N16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="N17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="N18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="N19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="N20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="N21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C22" t="s">
-        <v>47</v>
-      </c>
-      <c r="N22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="N23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C24" t="s">
-        <v>16</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C26" t="s">
-        <v>23</v>
-      </c>
-      <c r="N26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C28" t="s">
-        <v>32</v>
-      </c>
-      <c r="N28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C29" t="s">
-        <v>34</v>
-      </c>
-      <c r="N29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="N30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="N31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="N32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="14:16" x14ac:dyDescent="0.45">
-      <c r="N33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="14:16" x14ac:dyDescent="0.45">
-      <c r="N34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P34" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="14:16" x14ac:dyDescent="0.45">
-      <c r="N35" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="O35" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="P35" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="54" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="54" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="270" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>